--- a/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\CovidActNowAPIClient\StateOfTexas\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C68C190-4EB4-4A82-95FC-5FD4EE1F7099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C887EF5F-CFCF-411E-835D-2975DC388278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatalities by County" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
   <si>
     <t>County Name</t>
   </si>
@@ -827,6 +827,15 @@
   </si>
   <si>
     <t>Fatalities 11-29</t>
+  </si>
+  <si>
+    <t>Fatalities 12-30</t>
+  </si>
+  <si>
+    <t>Fatalities 12-01</t>
+  </si>
+  <si>
+    <t>Fatalities 12-02</t>
   </si>
   <si>
     <t>COLLIN</t>
@@ -836,13 +845,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -881,8 +895,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1200,22 +1217,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JI2"/>
+  <dimension ref="A1:JL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="JH1" sqref="JH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="269" width="12" customWidth="1"/>
+    <col min="1" max="272" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2013,16 +2030,25 @@
       <c r="JG1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="JH1" s="1" t="s">
+      <c r="JH1" s="2" t="s">
         <v>267</v>
       </c>
       <c r="JI1" s="1" t="s">
         <v>268</v>
       </c>
+      <c r="JJ1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
-    <row r="2" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2739,94 +2765,103 @@
         <v>204</v>
       </c>
       <c r="IF2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="IG2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="IH2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="II2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="IJ2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="IK2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="IL2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="IM2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="IN2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="IO2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="IP2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="IQ2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="IR2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="IS2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="IT2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="IU2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="IV2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="IW2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="IX2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="IY2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="IZ2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="JA2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="JB2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="JC2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="JD2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="JE2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="JF2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="JG2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="JH2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="JI2">
-        <v>253</v>
+        <v>265</v>
+      </c>
+      <c r="JJ2">
+        <v>266</v>
+      </c>
+      <c r="JK2">
+        <v>266</v>
+      </c>
+      <c r="JL2">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C887EF5F-CFCF-411E-835D-2975DC388278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF2687-1371-45B4-ADCD-56A84FF863A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatalities by County" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>County Name</t>
   </si>
@@ -836,6 +836,18 @@
   </si>
   <si>
     <t>Fatalities 12-02</t>
+  </si>
+  <si>
+    <t>Fatalities 12-03</t>
+  </si>
+  <si>
+    <t>Fatalities 12-04</t>
+  </si>
+  <si>
+    <t>Fatalities 12-05</t>
+  </si>
+  <si>
+    <t>Fatalities 12-06</t>
   </si>
   <si>
     <t>COLLIN</t>
@@ -845,18 +857,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -895,11 +902,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1217,22 +1221,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JL2"/>
+  <dimension ref="A1:JP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="JH1" sqref="JH1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="272" width="12" customWidth="1"/>
+    <col min="1" max="276" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:276" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2030,7 +2034,7 @@
       <c r="JG1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="JH1" s="2" t="s">
+      <c r="JH1" s="1" t="s">
         <v>267</v>
       </c>
       <c r="JI1" s="1" t="s">
@@ -2045,10 +2049,22 @@
       <c r="JL1" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="JM1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>275</v>
+      </c>
     </row>
-    <row r="2" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2810,58 +2826,70 @@
         <v>236</v>
       </c>
       <c r="IU2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="IV2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="IW2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="IX2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="IY2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="IZ2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="JA2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="JB2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="JC2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="JD2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="JE2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="JF2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="JG2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="JH2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="JI2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="JJ2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="JK2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="JL2">
-        <v>266</v>
+        <v>279</v>
+      </c>
+      <c r="JM2">
+        <v>279</v>
+      </c>
+      <c r="JN2">
+        <v>279</v>
+      </c>
+      <c r="JO2">
+        <v>279</v>
+      </c>
+      <c r="JP2">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF2687-1371-45B4-ADCD-56A84FF863A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667161BA-910D-4B1F-A994-497F5451C51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatalities by County" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>County Name</t>
   </si>
@@ -848,6 +848,12 @@
   </si>
   <si>
     <t>Fatalities 12-06</t>
+  </si>
+  <si>
+    <t>Fatalities 12-07</t>
+  </si>
+  <si>
+    <t>Fatalities 12-08</t>
   </si>
   <si>
     <t>COLLIN</t>
@@ -1221,18 +1227,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JP2"/>
+  <dimension ref="A1:JR2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="276" width="12" customWidth="1"/>
+    <col min="1" max="278" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:276" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:278" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2061,10 +2067,16 @@
       <c r="JP1" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="JQ1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="2" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2844,52 +2856,58 @@
         <v>257</v>
       </c>
       <c r="JA2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="JB2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="JC2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="JD2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="JE2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="JF2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="JG2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="JH2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="JI2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="JJ2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="JK2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="JL2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="JM2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="JN2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="JO2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="JP2">
-        <v>279</v>
+        <v>288</v>
+      </c>
+      <c r="JQ2">
+        <v>288</v>
+      </c>
+      <c r="JR2">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667161BA-910D-4B1F-A994-497F5451C51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAEF403-F3B6-45B2-9C7C-4409155D2168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatalities by County" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>County Name</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>Fatalities 12-08</t>
+  </si>
+  <si>
+    <t>Fatalities 12-09</t>
   </si>
   <si>
     <t>COLLIN</t>
@@ -1227,18 +1230,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JR2"/>
+  <dimension ref="A1:JS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="IY1" workbookViewId="0">
+      <selection activeCell="JR2" sqref="JR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="278" width="12" customWidth="1"/>
+    <col min="1" max="276" width="12" customWidth="1"/>
+    <col min="277" max="279" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:278" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:279" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2073,10 +2077,13 @@
       <c r="JR1" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="JS1" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="2" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2706,199 +2713,199 @@
         <v>163</v>
       </c>
       <c r="HC2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="HD2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="HE2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="HF2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="HG2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="HH2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="HI2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="HJ2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="HK2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="HL2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="HM2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="HN2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="HO2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="HP2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="HQ2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="HR2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="HS2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="HT2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="HU2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="HV2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="HW2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="HX2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="HY2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="HZ2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="IA2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="IB2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="IC2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="ID2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="IE2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="IF2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="IG2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="IH2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="II2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="IJ2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="IK2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="IL2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="IM2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="IN2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="IO2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="IP2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="IQ2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="IR2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="IS2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="IT2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="IU2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="IV2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="IW2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="IX2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="IY2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="IZ2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="JA2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="JB2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="JC2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JD2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="JE2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="JF2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="JG2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="JH2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="JI2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="JJ2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="JK2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="JL2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="JM2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="JN2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="JO2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="JP2">
         <v>288</v>
@@ -2908,6 +2915,9 @@
       </c>
       <c r="JR2">
         <v>288</v>
+      </c>
+      <c r="JS2">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAEF403-F3B6-45B2-9C7C-4409155D2168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9341EF-747B-427E-80C6-1E342B0F334D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t>County Name</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t>COLLIN</t>
+  </si>
+  <si>
+    <t>Fatalities 12-10</t>
   </si>
 </sst>
 </file>
@@ -1230,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JS2"/>
+  <dimension ref="A1:JT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IY1" workbookViewId="0">
-      <selection activeCell="JR2" sqref="JR2"/>
+    <sheetView tabSelected="1" topLeftCell="JJ1" workbookViewId="0">
+      <selection activeCell="JT7" sqref="JT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1245,7 @@
     <col min="277" max="279" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:279" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:280" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2080,8 +2083,11 @@
       <c r="JS1" s="1" t="s">
         <v>278</v>
       </c>
+      <c r="JT1" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
-    <row r="2" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -2918,6 +2924,9 @@
       </c>
       <c r="JS2">
         <v>291</v>
+      </c>
+      <c r="JT2">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9341EF-747B-427E-80C6-1E342B0F334D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B8C18-0E86-4241-A93D-0322C74594AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>County Name</t>
   </si>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>Fatalities 12-10</t>
+  </si>
+  <si>
+    <t>Fatalities 12-11</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1233,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JT2"/>
+  <dimension ref="A1:JU2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="JJ1" workbookViewId="0">
-      <selection activeCell="JT7" sqref="JT7"/>
+      <selection activeCell="JV6" sqref="JV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1251,7 @@
     <col min="277" max="279" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:280" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:281" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2086,8 +2092,11 @@
       <c r="JT1" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="JU1" s="2" t="s">
+        <v>281</v>
+      </c>
     </row>
-    <row r="2" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:281" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -2927,6 +2936,9 @@
       </c>
       <c r="JT2">
         <v>295</v>
+      </c>
+      <c r="JU2">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B8C18-0E86-4241-A93D-0322C74594AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FDE3C9-6D40-464D-A7B3-A37EB25E18D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatalities by County" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>County Name</t>
   </si>
@@ -829,9 +829,6 @@
     <t>Fatalities 11-29</t>
   </si>
   <si>
-    <t>Fatalities 12-30</t>
-  </si>
-  <si>
     <t>Fatalities 12-01</t>
   </si>
   <si>
@@ -866,6 +863,12 @@
   </si>
   <si>
     <t>Fatalities 12-11</t>
+  </si>
+  <si>
+    <t>Fatalities 12-12</t>
+  </si>
+  <si>
+    <t>Fatalities 11-30</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,6 +928,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,19 +1246,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JU2"/>
+  <dimension ref="A1:JV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JJ1" workbookViewId="0">
-      <selection activeCell="JV6" sqref="JV6"/>
+    <sheetView tabSelected="1" topLeftCell="JH1" workbookViewId="0">
+      <selection activeCell="JJ1" sqref="JJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="276" width="12" customWidth="1"/>
     <col min="277" max="279" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="281" max="282" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:281" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:282" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,45 +2068,48 @@
         <v>268</v>
       </c>
       <c r="JJ1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JK1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="JK1" s="1" t="s">
+      <c r="JL1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="JL1" s="1" t="s">
+      <c r="JM1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="JM1" s="1" t="s">
+      <c r="JN1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="JN1" s="1" t="s">
+      <c r="JO1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="JO1" s="1" t="s">
+      <c r="JP1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="JP1" s="1" t="s">
+      <c r="JQ1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="JQ1" s="1" t="s">
+      <c r="JR1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="JR1" s="1" t="s">
+      <c r="JS1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="JS1" s="1" t="s">
+      <c r="JT1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JU1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="JV1" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:282" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>278</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="JU1" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:281" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>279</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2939,6 +2950,9 @@
       </c>
       <c r="JU2">
         <v>298</v>
+      </c>
+      <c r="JV2" s="4">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FDE3C9-6D40-464D-A7B3-A37EB25E18D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763D267D-A9E5-451A-B229-EF14A4366200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>County Name</t>
   </si>
@@ -869,6 +869,9 @@
   </si>
   <si>
     <t>Fatalities 11-30</t>
+  </si>
+  <si>
+    <t>Fatalities 12-13</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -928,6 +931,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1246,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JV2"/>
+  <dimension ref="A1:JW2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="JH1" workbookViewId="0">
-      <selection activeCell="JJ1" sqref="JJ1"/>
+      <selection activeCell="JW2" sqref="JW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1266,7 @@
     <col min="281" max="282" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:282" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:283" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2106,8 +2113,11 @@
       <c r="JV1" s="3" t="s">
         <v>281</v>
       </c>
+      <c r="JW1" s="5" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="2" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:283" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>278</v>
       </c>
@@ -2952,6 +2962,9 @@
         <v>298</v>
       </c>
       <c r="JV2" s="4">
+        <v>300</v>
+      </c>
+      <c r="JW2" s="6">
         <v>300</v>
       </c>
     </row>

--- a/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19FatalityCountDatabyCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763D267D-A9E5-451A-B229-EF14A4366200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EF32E4-4852-49C5-9EFB-5DE7D5B0CC75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>County Name</t>
   </si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>Fatalities 12-13</t>
+  </si>
+  <si>
+    <t>Fatalities 12-14</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -931,6 +934,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1253,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JW2"/>
+  <dimension ref="A1:JX2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="JH1" workbookViewId="0">
-      <selection activeCell="JW2" sqref="JW2"/>
+      <selection activeCell="JX2" sqref="JX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1273,7 @@
     <col min="281" max="282" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:283" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:284" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2116,8 +2123,11 @@
       <c r="JW1" s="5" t="s">
         <v>283</v>
       </c>
+      <c r="JX1" s="7" t="s">
+        <v>284</v>
+      </c>
     </row>
-    <row r="2" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:284" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>278</v>
       </c>
@@ -2966,6 +2976,9 @@
       </c>
       <c r="JW2" s="6">
         <v>300</v>
+      </c>
+      <c r="JX2" s="8">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
